--- a/Pokemon/Region/Medagliere.xlsx
+++ b/Pokemon/Region/Medagliere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\Pokemon\Region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD408C2F-4E02-4916-87B4-6F3B858CAA46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1718A271-9FC3-4BAF-80DA-0741D1BA0231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9CB66CD9-0EB2-4BBE-BCC1-509704EACD83}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Palestre" sheetId="1" r:id="rId1"/>
     <sheet name="Contest Fiocchi" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Contest Fiocchi'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Palestre!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="181">
   <si>
     <t>Palestra</t>
   </si>
@@ -73,10 +77,508 @@
     <t>Tot C</t>
   </si>
   <si>
-    <t>Milano Due</t>
-  </si>
-  <si>
     <t>Lombardia</t>
+  </si>
+  <si>
+    <t>Palestra delle Orobie</t>
+  </si>
+  <si>
+    <t>La Santa Palestra</t>
+  </si>
+  <si>
+    <t>Vaticano</t>
+  </si>
+  <si>
+    <t>Bergamo</t>
+  </si>
+  <si>
+    <t>Messina</t>
+  </si>
+  <si>
+    <t>Sicilia</t>
+  </si>
+  <si>
+    <t>Baia di Naxos</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Emilia Romagna</t>
+  </si>
+  <si>
+    <t>Palestra Centrale dell'Emilia Romagna</t>
+  </si>
+  <si>
+    <t>Officina della Lotta</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Piemonte</t>
+  </si>
+  <si>
+    <t>Palestra della V di VCO</t>
+  </si>
+  <si>
+    <t>Palestra della O di VCO</t>
+  </si>
+  <si>
+    <t>Palestra della C di VCO</t>
+  </si>
+  <si>
+    <t>Verbano-Cusio-Ossola</t>
+  </si>
+  <si>
+    <t>Cava de' Tirreni</t>
+  </si>
+  <si>
+    <t>Carrara</t>
+  </si>
+  <si>
+    <t>Toscana</t>
+  </si>
+  <si>
+    <t>Palestra De' Medici</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Palestra del Vesuvio</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Campania</t>
+  </si>
+  <si>
+    <t>Milanoforum</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Mestre</t>
+  </si>
+  <si>
+    <t>Veneto</t>
+  </si>
+  <si>
+    <t>Anfiteatro di Agrigento</t>
+  </si>
+  <si>
+    <t>Agrigento</t>
+  </si>
+  <si>
+    <t>L'Aquila</t>
+  </si>
+  <si>
+    <t>Abruzzo</t>
+  </si>
+  <si>
+    <t>Bolzano</t>
+  </si>
+  <si>
+    <t>Trentino Alto Adige</t>
+  </si>
+  <si>
+    <t>Alpen Turnhalle</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
+    <t>Liguria</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>Puglia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potenza </t>
+  </si>
+  <si>
+    <t>Basilicata</t>
+  </si>
+  <si>
+    <t>Reggio Calabria</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Barletta-Andria-Trani</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Avellino</t>
+  </si>
+  <si>
+    <t>Ferrara</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Rimini</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Monza e della Brianza</t>
+  </si>
+  <si>
+    <t>Ascoli Piceno</t>
+  </si>
+  <si>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>Campobasso</t>
+  </si>
+  <si>
+    <t>Molise</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Caserta</t>
+  </si>
+  <si>
+    <t>Sud Sardegna</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Umbria</t>
+  </si>
+  <si>
+    <t>Aosta</t>
+  </si>
+  <si>
+    <t>Valle D'Aosta</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Palestra degli Abruzzi</t>
+  </si>
+  <si>
+    <t>Ariston di Sanremo</t>
+  </si>
+  <si>
+    <t>Le acciaierie di Taranto</t>
+  </si>
+  <si>
+    <t>La palestra dei Quattro Mori</t>
+  </si>
+  <si>
+    <t>Palestra di Cosenza</t>
+  </si>
+  <si>
+    <t>L'Arena</t>
+  </si>
+  <si>
+    <t>Palestra del Campidoglio</t>
+  </si>
+  <si>
+    <t>Grande palestra del Friuli Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Biosfera</t>
+  </si>
+  <si>
+    <t>Palestra del Sud Sardegna</t>
+  </si>
+  <si>
+    <t>Teatro Stabile</t>
+  </si>
+  <si>
+    <t>La grande mensa</t>
+  </si>
+  <si>
+    <t>Palestra di Avellino</t>
+  </si>
+  <si>
+    <t>La Reggia</t>
+  </si>
+  <si>
+    <t>Stadio Arechi</t>
+  </si>
+  <si>
+    <t>Palestra d'Este</t>
+  </si>
+  <si>
+    <t>Palestra della Franciacorta</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>Papeete</t>
+  </si>
+  <si>
+    <t>Mulino Colombo</t>
+  </si>
+  <si>
+    <t>Castello della magia</t>
+  </si>
+  <si>
+    <t>Palestra di San Nicola</t>
+  </si>
+  <si>
+    <t>Ginnasio del Salento</t>
+  </si>
+  <si>
+    <t>Villa Belvedere</t>
+  </si>
+  <si>
+    <t>Padoglione Nord</t>
+  </si>
+  <si>
+    <t>Palestra navigante di Mestre</t>
+  </si>
+  <si>
+    <t>Palestra delle Contrade</t>
+  </si>
+  <si>
+    <t>Palestra di Maredolce</t>
+  </si>
+  <si>
+    <t>Palestra delle Dolomiti</t>
+  </si>
+  <si>
+    <t>Rocca Paolina</t>
+  </si>
+  <si>
+    <t>Cremona</t>
+  </si>
+  <si>
+    <t>Rocca di Soncino</t>
+  </si>
+  <si>
+    <t>Baita di Courmayeur</t>
+  </si>
+  <si>
+    <t>Palestra di Pazza dei Signori</t>
+  </si>
+  <si>
+    <t>Città</t>
+  </si>
+  <si>
+    <t>Studio Centrale di Milano 2</t>
+  </si>
+  <si>
+    <t>Malpensafiere</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>Palestra di Padova</t>
+  </si>
+  <si>
+    <t>Padiglione Sud</t>
+  </si>
+  <si>
+    <t>Ligura</t>
+  </si>
+  <si>
+    <t>La Spezia</t>
+  </si>
+  <si>
+    <t>Palestra di La Spezia</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>Palestra Etrusca</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Pesaro e Urbino</t>
+  </si>
+  <si>
+    <t>Rocca Roveresca</t>
+  </si>
+  <si>
+    <t>Palestra Alessandrina</t>
+  </si>
+  <si>
+    <t>Burioni!</t>
+  </si>
+  <si>
+    <t>Baia di Riccione</t>
+  </si>
+  <si>
+    <t>BATteatro</t>
+  </si>
+  <si>
+    <t>Cinecittà</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>Vibo Valentia</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Mantova</t>
+  </si>
+  <si>
+    <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Museo del Cinema</t>
+  </si>
+  <si>
+    <t>Terni</t>
+  </si>
+  <si>
+    <t>Grosseto</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Brindisi</t>
+  </si>
+  <si>
+    <t>Livorno</t>
+  </si>
+  <si>
+    <t>Fiera dell'Elba</t>
+  </si>
+  <si>
+    <t>Fiera di Pescara</t>
+  </si>
+  <si>
+    <t>Fiera di Matera</t>
+  </si>
+  <si>
+    <t>Parco Marino Regionale Costa degli Dei</t>
+  </si>
+  <si>
+    <t>Mostra d'Oltremare</t>
+  </si>
+  <si>
+    <t>Parco Teodorico</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Parco del Duomo</t>
+  </si>
+  <si>
+    <t>Palabefana</t>
+  </si>
+  <si>
+    <t>Stadio Ennio Tardini</t>
+  </si>
+  <si>
+    <t>Grattacielo L'Edera</t>
+  </si>
+  <si>
+    <t>Fiera Cuneense</t>
+  </si>
+  <si>
+    <t>Teatro di Corte dei Gonzaga</t>
+  </si>
+  <si>
+    <t>Valle dei Templi</t>
+  </si>
+  <si>
+    <t>Necropoli di Tuvixeddu</t>
+  </si>
+  <si>
+    <t>Grande Hyperion</t>
+  </si>
+  <si>
+    <t>Allegra Fattoria</t>
+  </si>
+  <si>
+    <t>GameTrade Department</t>
+  </si>
+  <si>
+    <t>Auditorium Emidio Neroni</t>
+  </si>
+  <si>
+    <t>Loggia del palazzo Balsamo</t>
   </si>
 </sst>
 </file>
@@ -454,322 +956,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A272ED8-6D26-463D-83B8-ABB39204AF4F}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <f>16*16</f>
         <v>256</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(E:E,"S")*8*J1 + COUNTIF(E:E,"A")*J2 + COUNTIF(E:E,"B")*(2/3)*J3 + COUNTIF(E:E,"C")*(1/2)*J4</f>
+        <v>300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <f>COUNTIF(D:D,"S")*8*I1 + COUNTIF(D:D,"A")*I2 + COUNTIF(D:D,"B")*(2/3)*I3 + COUNTIF(D:D,"C")*(1/2)*I4</f>
-        <v>300</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="2" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="2" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{41BDBA1D-4310-4E52-9E15-8FABAF34D02F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -777,226 +1736,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8BF8F7-ECCA-4E29-8465-BC99207D1D50}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(E:E,"S")*8*J1 + COUNTIF(E:E,"A")*J2 + COUNTIF(E:E,"B")*(2/3)*J3 + COUNTIF(E:E,"C")*(1/2)*J4</f>
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <f>COUNTIF(D:D,"S")*8*I1 + COUNTIF(D:D,"A")*I2 + COUNTIF(D:D,"B")*(2/3)*I3 + COUNTIF(D:D,"C")*(1/2)*I4</f>
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{8AF0EDEE-5581-4D1B-BCE4-88DD801A75EE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Pokemon/Region/Medagliere.xlsx
+++ b/Pokemon/Region/Medagliere.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\Pokemon\Region\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1718A271-9FC3-4BAF-80DA-0741D1BA0231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9CB66CD9-0EB2-4BBE-BCC1-509704EACD83}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Palestre" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Contest Fiocchi'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Palestre!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -584,8 +578,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +638,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -754,7 +748,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -948,30 +942,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A272ED8-6D26-463D-83B8-ABB39204AF4F}">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J1" sqref="J1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,14 +981,14 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1007,207 +1001,262 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="F2" t="str">
+        <f>CONCATENATE(A2," - (",B2,", ",C2, ") - Classe ",E2)</f>
+        <v>Palestra degli Abruzzi - (L'Aquila, Abruzzo) - Classe A</v>
+      </c>
+      <c r="H2">
         <f>16*16</f>
         <v>256</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <f>COUNTIF(E:E,"S")*8*J1 + COUNTIF(E:E,"A")*J2 + COUNTIF(E:E,"B")*(2/3)*J3 + COUNTIF(E:E,"C")*(1/2)*J4</f>
+        <v>6</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F51" si="0">CONCATENATE(A3," - (",B3,", ",C3, ") - Classe ",E3)</f>
+        <v>Palestra Centrale dell'Emilia Romagna - (Bologna, Emilia Romagna) - Classe A</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(E:E,"S")*8*K1 + COUNTIF(E:E,"A")*K2 + COUNTIF(E:E,"B")*(2/3)*K3 + COUNTIF(E:E,"C")*(1/2)*K4</f>
         <v>300</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Milanoforum - (Milano, Lombardia) - Classe A</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocca Roveresca - (Pesaro e Urbino, Marche) - Classe A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Officina della Lotta - (Torino, Piemonte) - Classe A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Le acciaierie di Taranto - (Taranto, Puglia) - Classe A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>La palestra dei Quattro Mori - (Cagliari, Sardegna) - Classe A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Anfiteatro di Agrigento - (Agrigento, Sicilia) - Classe A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra De' Medici - (Firenze, Toscana) - Classe A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpen Turnhalle - (Bolzano, Trentino Alto Adige) - Classe A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Cosenza - (Cosenza, Calabria) - Classe B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Vesuvio - (Napoli, Campania) - Classe B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Grande palestra del Friuli Venezia Giulia - (Trieste, Friuli Venezia Giulia) - Classe B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1215,27 +1264,35 @@
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra Etrusca - (Latina, Lazio) - Classe B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Campidoglio - (Roma, Lazio) - Classe B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
@@ -1243,380 +1300,485 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Biosfera - (Genova, Liguria) - Classe B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di La Spezia - (La Spezia, Liguria) - Classe B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Orobie - (Bergamo, Lombardia) - Classe B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra Alessandrina - (Alessandria, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della V di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della C di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della O di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Sud Sardegna - (Sud Sardegna, Sardegna) - Classe B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cava de' Tirreni - (Carrara, Toscana) - Classe B</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra navigante di Mestre - (Mestre, Veneto) - Classe B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Teatro Stabile - (Potenza , Basilicata) - Classe C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>La grande mensa - (Reggio Calabria, Calabria) - Classe C</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Avellino - (Avellino, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>La Reggia - (Caserta, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Stadio Arechi - (Salerno, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra d'Este - (Ferrara, Emilia-Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Papeete - (Ravenna, Emilia-Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della Franciacorta - (Brescia, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocca di Soncino - (Cremona, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Mulino Colombo - (Monza e della Brianza, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>GameTrade Department - (Ancona, Marche) - Classe C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Castello della magia - (Campobasso, Molise) - Classe C</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di San Nicola - (Bari, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginnasio del Salento - (Lecce, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Villa Belvedere - (Catania, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Baia di Naxos - (Messina, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Maredolce - (Palermo, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>118</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -1624,22 +1786,30 @@
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Padoglione Nord - (Lucca, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Contrade - (Siena, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -1652,8 +1822,12 @@
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Dolomiti - (Trento, Trentino Alto Adige) - Classe C</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -1666,8 +1840,12 @@
       <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocca Paolina - (Perugia, Umbria) - Classe C</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -1680,27 +1858,35 @@
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Baita di Courmayeur - (Aosta, Valle D'Aosta) - Classe C</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Padova - (Padova, Veneto) - Classe C</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>42</v>
@@ -1708,25 +1894,33 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Pazza dei Signori - (Vicenza, Veneto) - Classe C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>La Santa Palestra - (Vaticano, Stato Vaticano) - Classe S</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{41BDBA1D-4310-4E52-9E15-8FABAF34D02F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E51">
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,22 +1929,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8BF8F7-ECCA-4E29-8465-BC99207D1D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,18 +1967,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(A2," - (",B2,", ",C2, ") - Classe ",E2)</f>
+        <v>Baia di Riccione - (Rimini, Emilia Romagna) - Classe A</v>
       </c>
       <c r="G2">
         <f>16*8</f>
@@ -1797,18 +1995,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F28" si="0">CONCATENATE(A3," - (",B3,", ",C3, ") - Classe ",E3)</f>
+        <v>Cinecittà - (Roma, Lazio) - Classe A</v>
       </c>
       <c r="G3">
         <f>COUNTIF(E:E,"S")*8*J1 + COUNTIF(E:E,"A")*J2 + COUNTIF(E:E,"B")*(2/3)*J3 + COUNTIF(E:E,"C")*(1/2)*J4</f>
@@ -1821,18 +2023,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ariston di Sanremo - (Savona, Ligura) - Classe A</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1841,315 +2047,403 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Padiglione Sud - (Lucca, Toscana) - Classe A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>L'Arena - (Verona, Veneto) - Classe A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiera di Pescara - (Pescara, Abruzzo) - Classe B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiera di Matera - (Matera, Basilicata) - Classe B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Parco Marino Regionale Costa degli Dei - (Vibo Valentia, Calabria) - Classe B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mostra d'Oltremare - (Napoli, Campania) - Classe B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Parco Teodorico - (Ravenna, Emilia Romagna) - Classe B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Malpensafiere - (Varese, Lombardia) - Classe B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Museo del Cinema - (Torino, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>BATteatro - (Barletta-Andria-Trani, Puglia) - Classe B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Parco del Duomo - (Pisa, Toscana) - Classe B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Palabefana - (Benevento, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Stadio Ennio Tardini - (Parma, Emilia Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Grattacielo L'Edera - (Frosinone, Lazio) - Classe C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Teatro di Corte dei Gonzaga - (Mantova, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>179</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Auditorium Emidio Neroni - (Ascoli Piceno, Marche) - Classe C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>172</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>154</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiera Cuneense - (Cuneo, Piemonte) - Classe C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Loggia del palazzo Balsamo - (Brindisi, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>175</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Necropoli di Tuvixeddu - (Cagliari, Sardegna) - Classe C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>174</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Valle dei Templi - (Agrigento, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Allegra Fattoria - (Grosseto, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiera dell'Elba - (Livorno, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -2162,25 +2456,33 @@
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Grande Hyperion - (Terni, Umbria) - Classe C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Studio Centrale di Milano 2 - (Milano, Lombardia) - Classe S</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8AF0EDEE-5581-4D1B-BCE4-88DD801A75EE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E28">
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pokemon/Region/Medagliere.xlsx
+++ b/Pokemon/Region/Medagliere.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Palestre" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="205">
   <si>
     <t>Palestra</t>
   </si>
@@ -573,6 +573,78 @@
   </si>
   <si>
     <t>Loggia del palazzo Balsamo</t>
+  </si>
+  <si>
+    <t>A Firenze viene ospitata la palestra De' Medici, dove il capopalestra sfrutta la sua ampia conoscenza dei pokemon terra per difendere il proprio onore e le proprie medaglie. Rhyperior guida la carica in questa palestra.</t>
+  </si>
+  <si>
+    <t>A Carrara, nella cava del marmo bianco, è situata la palestra di Cava De' Tirreno. L'allenatore da affrontare e da battere è un grande studioso dei pokemon di tipo Roccia. Organizza lotte in doppio, dove ogni allenatore ha la possibilità di selezionare solo quattro dei pokemon della propria squadra.</t>
+  </si>
+  <si>
+    <t>Nel padiglione Nord di Lucca il capopalestra affronta l'intera squadra degli avversari con i propri pokemon regionali. A fare da guida alla sua squadra c'è un dolcissimo Sandslash del Trentino.</t>
+  </si>
+  <si>
+    <t>A Siena c'è la palestra più peculiare della nazione, data la situazione di tensione interna alla città a causa degli odi tra contrade e la voglia di superiorità ogni giorno viene selezionata una contrada a caso per difendere l'onore della palestra Senese. Affisso fuori dalla palestra c'è indicato, giorno per giorno, le ultime tre contrade ad aver difeso la palestra. In questo modo si da la possibilità agli allenatori di sapere cosa non possono incontrare nella giornata odierna. Secondo i bisbigli di corte che ti capitò di sentire e di leggere è meglio girare al largo dalla Contrada del Charizard, dalla contrada del Blastoise e da quella del Hydreigon. Più facili, si dice, quella del Girafarig e quella del Picachu.</t>
+  </si>
+  <si>
+    <t>Il contest di Lucca è famoso per le regole peculiari, che impongono ai pokemon di non poter usare mosse S.T.A.B. per le proprie esibizioni</t>
+  </si>
+  <si>
+    <t>A Grosseto il contest dell'Allegra Fattoria regala un ambiente bucolico per le proprie esibizioni.</t>
+  </si>
+  <si>
+    <t>La Fiera dell'Elba accoglie per il primo anno in assoluto un contest, quindi non si sa nulla in particolare su questa competizione</t>
+  </si>
+  <si>
+    <t>Sai che il Capopalestra dei Quattro Mori è ritenuto la facciata della palestra, semplicemente la punta dell'Iceberg di un lavoro certosino di un team tattico che lavora dietro le quinte. Negli ultimi anni questa palestra ha consentito l'accesso, tramite il regolamento, soltanto ad allenatori con sei Pokemon attivi e porta lotte dove ognuno dei due allenatori deve scegliere quattro di questi sei pokemon. Sul terreno di lotta ogni allenatore schiererà contemporaneamente due Pokemon. Non ti è mai arrivato all'orecchio che possa avere una specifica preferenza per un tipo o per l'altro, ma sai comunque che il suo ACE sia un Arcanine.</t>
+  </si>
+  <si>
+    <t>La palestra del Sud Sardegna è, invece, relativamente recente. Le regole ti sembra fossero quelle ritenute classiche. Ogni allenatore può presentarsi con 6 pokemon che si affronteranno in incontri uno contro uno. La palestra ricordi essere legata al tipo Oscurità con come ACE Cacturne.</t>
+  </si>
+  <si>
+    <t>Il contest della Necropoli di Tuvixeddu è famoso, nonostante la sua classe C, per la sua peculiarità. Difatti viene svolto all'interno della suddetta necropoli con la sola illuminazione della luna. Proprio per questo è fondamentale che il pokemon sappia usare le proprie mosse per creare non solo delle grandi coreografie, ma degli ottimi giochi di luce che permettano di essere visibili.</t>
+  </si>
+  <si>
+    <t>Non si sa nulla, se non che è completamente nuova.</t>
+  </si>
+  <si>
+    <t>La palestra del Campidoglio ha un capopalestra specializzato in pokemon di tipo veleno, con come ACE Garbodor</t>
+  </si>
+  <si>
+    <t>La suggettiva palestra Etrusca, sviluppata all'interno delle rovine dell'antica civiltà, regala sfide in grandi campi aperti che permette ai pokemon volanti del capopalestra di sfruttare al meglio tutte le proprie capacità, giudati dall'implacabile Pidgeot.</t>
+  </si>
+  <si>
+    <t>I contest svolti a Cinecittà sono difficili, a differenza di molti degli altri esige anche un'ottima presenza scenica a fronte della telecamera, che permetta di non rovinare le riprese.</t>
+  </si>
+  <si>
+    <t>Il contest di Frosinone si svolge, invece, sulla cima del grande grattacelo L'Edera obbligando i pokemon ad avere la massima attenzione nella propria esibizione a causa delle possibili folate di vento</t>
+  </si>
+  <si>
+    <t>La palestra concede all'allenatore la scelta di cinque pokemon e regala la vittoria al primo che ottiene 3 eliminazioni. Ogni pokemon prenderà parte ad un incontro uno contro uno, e sia in caso di vittoria che in caso di sconfitta verrà sostituito e non potrà più essere utilizzato, generando di fatto 5 incontri diversi. Quella volta che i tuoi genitori hanno avuto la fortuna di portarti ad assistere ad un'incontro sei rimasto sbalordito dalla potenza e dalla leggiadria del Dragonite del capopalestra.</t>
+  </si>
+  <si>
+    <t>La palestra Belvedere di Catania è nuova, non ne hai sentito mai parlare</t>
+  </si>
+  <si>
+    <t>La Maredolce di Palermo è nota per l'Honchkrow del capopalestra, ma la fama della stessa si limita a questo.</t>
+  </si>
+  <si>
+    <t>La Baia di Naxos di Messina è invece più famosa, visto che regala una lotta peculiare. Ogni allenatore sceglie tre dei propri pokemon per la contesa e li mette in campo tutti contemporaneamente. Lo stesso terreno di lotta è particolare, essendo sul ciglio di una scogliera.</t>
+  </si>
+  <si>
+    <t>I contest della Valle dei Templi ha la cornice particolare delle antiche strutture elleniche, nonostante ospiti un normalissimo contest fiocchi.</t>
+  </si>
+  <si>
+    <t>A guidare la carica è la Palestra Navigante di Mestre, dove il capopalestra affronta gli sfidanti con il proprio temibile gruppo di pokemon d'acqua guidati dal proprio fortissimo Walrein. Nonostante la competizione sia classica, è la palestra ad essere particolare. I due allenatori si posizionano su due piccole zattere fissate al terreno con delle ancore e fanno lottare i pokemon nel pieno della baia dell'ex Laguna di Venezia. Alcuni scogli e qualche relitto danno la possibilità di combattere anche ai pokemon che non nuotano con grande abilità.</t>
+  </si>
+  <si>
+    <t>La palestra di Padova è gestita da un mastermind, tattico e professionale regala delle sfide complesse a tutti i suoi avversari dove ognuno può schierare solo due dei propri pokemon, in una sfida secca in doppio. Lui, camaleontico, sembra sempre pronto ad ogni evenienza senza tipizzazioni specifiche.</t>
+  </si>
+  <si>
+    <t>A Vicenza, invece, il capopalestra ha deciso di costruire l'intera sua carriera nel dimostrare che i Vicentini amano i felinidi e non li cucinano</t>
+  </si>
+  <si>
+    <t>Il contest di Verona, all'interno dell'anfiteatro rinominato "Arena di Verona" è uno dei pochi in cui i partecipanti devono costruire le proprie esibizioni con due dei propri pokemon.</t>
   </si>
 </sst>
 </file>
@@ -628,13 +700,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,17 +1042,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -975,7 +1067,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -989,16 +1081,16 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="str">
@@ -1017,21 +1109,21 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F51" si="0">CONCATENATE(A3," - (",B3,", ",C3, ") - Classe ",E3)</f>
-        <v>Palestra Centrale dell'Emilia Romagna - (Bologna, Emilia Romagna) - Classe A</v>
+        <v>Teatro Stabile - (Potenza , Basilicata) - Classe C</v>
       </c>
       <c r="H3">
         <f>COUNTIF(E:E,"S")*8*K1 + COUNTIF(E:E,"A")*K2 + COUNTIF(E:E,"B")*(2/3)*K3 + COUNTIF(E:E,"C")*(1/2)*K4</f>
@@ -1045,21 +1137,21 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Milanoforum - (Milano, Lombardia) - Classe A</v>
+        <v>Palestra di Cosenza - (Cosenza, Calabria) - Classe B</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -1069,858 +1161,906 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>La grande mensa - (Reggio Calabria, Calabria) - Classe C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Vesuvio - (Napoli, Campania) - Classe B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Avellino - (Avellino, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>La Reggia - (Caserta, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stadio Arechi - (Salerno, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra Centrale dell'Emilia Romagna - (Bologna, Emilia Romagna) - Classe A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra d'Este - (Ferrara, Emilia-Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Papeete - (Ravenna, Emilia-Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Grande palestra del Friuli Venezia Giulia - (Trieste, Friuli Venezia Giulia) - Classe B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60">
+      <c r="A14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra Etrusca - (Latina, Lazio) - Classe B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Campidoglio - (Roma, Lazio) - Classe B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Biosfera - (Genova, Liguria) - Classe B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di La Spezia - (La Spezia, Liguria) - Classe B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Milanoforum - (Milano, Lombardia) - Classe A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Orobie - (Bergamo, Lombardia) - Classe B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della Franciacorta - (Brescia, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocca di Soncino - (Cremona, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Mulino Colombo - (Monza e della Brianza, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>Rocca Roveresca - (Pesaro e Urbino, Marche) - Classe A</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>GameTrade Department - (Ancona, Marche) - Classe C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Castello della magia - (Campobasso, Molise) - Classe C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>Officina della Lotta - (Torino, Piemonte) - Classe A</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra Alessandrina - (Alessandria, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della V di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della C di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra della O di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>Le acciaierie di Taranto - (Taranto, Puglia) - Classe A</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di San Nicola - (Bari, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginnasio del Salento - (Lecce, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="135">
+      <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>La palestra dei Quattro Mori - (Cagliari, Sardegna) - Classe A</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="35" spans="1:6" ht="60">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra del Sud Sardegna - (Sud Sardegna, Sardegna) - Classe B</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="105">
+      <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v>Anfiteatro di Agrigento - (Agrigento, Sicilia) - Classe A</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Villa Belvedere - (Catania, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Baia di Naxos - (Messina, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Maredolce - (Palermo, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>La Santa Palestra - (Vaticano, Stato Vaticano) - Classe S</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>Palestra De' Medici - (Firenze, Toscana) - Classe A</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="42" spans="1:6" ht="60">
+      <c r="A42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cava de' Tirreni - (Carrara, Toscana) - Classe B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45">
+      <c r="A43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Padoglione Nord - (Lucca, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="150">
+      <c r="A44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Contrade - (Siena, Toscana) - Classe C</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E45" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>Alpen Turnhalle - (Bolzano, Trentino Alto Adige) - Classe A</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra delle Dolomiti - (Trento, Trentino Alto Adige) - Classe C</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocca Paolina - (Perugia, Umbria) - Classe C</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Baita di Courmayeur - (Aosta, Valle D'Aosta) - Classe C</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="120">
+      <c r="A49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di Cosenza - (Cosenza, Calabria) - Classe B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra del Vesuvio - (Napoli, Campania) - Classe B</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>Grande palestra del Friuli Venezia Giulia - (Trieste, Friuli Venezia Giulia) - Classe B</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra Etrusca - (Latina, Lazio) - Classe B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra del Campidoglio - (Roma, Lazio) - Classe B</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>Biosfera - (Genova, Liguria) - Classe B</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di La Spezia - (La Spezia, Liguria) - Classe B</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra delle Orobie - (Bergamo, Lombardia) - Classe B</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra Alessandrina - (Alessandria, Piemonte) - Classe B</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra della V di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra della C di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra della O di VCO - (Verbano-Cusio-Ossola, Piemonte) - Classe B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra del Sud Sardegna - (Sud Sardegna, Sardegna) - Classe B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>Cava de' Tirreni - (Carrara, Toscana) - Classe B</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra navigante di Mestre - (Mestre, Veneto) - Classe B</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="75">
+      <c r="A50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra navigante di Mestre - (Mestre, Veneto) - Classe B</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>Teatro Stabile - (Potenza , Basilicata) - Classe C</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>La grande mensa - (Reggio Calabria, Calabria) - Classe C</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di Avellino - (Avellino, Campania) - Classe C</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>La Reggia - (Caserta, Campania) - Classe C</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>Stadio Arechi - (Salerno, Campania) - Classe C</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra d'Este - (Ferrara, Emilia-Romagna) - Classe C</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>Papeete - (Ravenna, Emilia-Romagna) - Classe C</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra della Franciacorta - (Brescia, Lombardia) - Classe C</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>Rocca di Soncino - (Cremona, Lombardia) - Classe C</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>Mulino Colombo - (Monza e della Brianza, Lombardia) - Classe C</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>GameTrade Department - (Ancona, Marche) - Classe C</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>Castello della magia - (Campobasso, Molise) - Classe C</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di San Nicola - (Bari, Puglia) - Classe C</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>Ginnasio del Salento - (Lecce, Puglia) - Classe C</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>Villa Belvedere - (Catania, Sicilia) - Classe C</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>Baia di Naxos - (Messina, Sicilia) - Classe C</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di Maredolce - (Palermo, Sicilia) - Classe C</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>Padoglione Nord - (Lucca, Toscana) - Classe C</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra delle Contrade - (Siena, Toscana) - Classe C</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra delle Dolomiti - (Trento, Trentino Alto Adige) - Classe C</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>Rocca Paolina - (Perugia, Umbria) - Classe C</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>Baita di Courmayeur - (Aosta, Valle D'Aosta) - Classe C</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Palestra di Padova - (Padova, Veneto) - Classe C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>Palestra di Padova - (Padova, Veneto) - Classe C</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="D51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>Palestra di Pazza dei Signori - (Vicenza, Veneto) - Classe C</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>La Santa Palestra - (Vaticano, Stato Vaticano) - Classe S</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
     <sortState ref="A2:E51">
-      <sortCondition ref="E1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1932,16 +2072,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1954,7 +2096,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1968,21 +2110,21 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
+      <c r="A2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2," - (",B2,", ",C2, ") - Classe ",E2)</f>
-        <v>Baia di Riccione - (Rimini, Emilia Romagna) - Classe A</v>
+        <v>Fiera di Pescara - (Pescara, Abruzzo) - Classe B</v>
       </c>
       <c r="G2">
         <f>16*8</f>
@@ -1996,21 +2138,21 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
+      <c r="A3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F28" si="0">CONCATENATE(A3," - (",B3,", ",C3, ") - Classe ",E3)</f>
-        <v>Cinecittà - (Roma, Lazio) - Classe A</v>
+        <v>Fiera di Matera - (Matera, Basilicata) - Classe B</v>
       </c>
       <c r="G3">
         <f>COUNTIF(E:E,"S")*8*J1 + COUNTIF(E:E,"A")*J2 + COUNTIF(E:E,"B")*(2/3)*J3 + COUNTIF(E:E,"C")*(1/2)*J4</f>
@@ -2024,21 +2166,21 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
+      <c r="A4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Ariston di Sanremo - (Savona, Ligura) - Classe A</v>
+        <v>Parco Marino Regionale Costa degli Dei - (Vibo Valentia, Calabria) - Classe B</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -2048,375 +2190,393 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="A5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Mostra d'Oltremare - (Napoli, Campania) - Classe B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Palabefana - (Benevento, Campania) - Classe C</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Padiglione Sud - (Lucca, Toscana) - Classe A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>L'Arena - (Verona, Veneto) - Classe A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Fiera di Pescara - (Pescara, Abruzzo) - Classe B</v>
+        <v>Baia di Riccione - (Rimini, Emilia Romagna) - Classe A</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
+      <c r="A8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Fiera di Matera - (Matera, Basilicata) - Classe B</v>
+        <v>Parco Teodorico - (Ravenna, Emilia Romagna) - Classe B</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
+      <c r="A9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Parco Marino Regionale Costa degli Dei - (Vibo Valentia, Calabria) - Classe B</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
+        <v>Stadio Ennio Tardini - (Parma, Emilia Romagna) - Classe C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Mostra d'Oltremare - (Napoli, Campania) - Classe B</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>Cinecittà - (Roma, Lazio) - Classe A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Parco Teodorico - (Ravenna, Emilia Romagna) - Classe B</v>
+        <v>Grattacielo L'Edera - (Frosinone, Lazio) - Classe C</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Ariston di Sanremo - (Savona, Ligura) - Classe A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>Malpensafiere - (Varese, Lombardia) - Classe B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
+        <v>Malpensafiere - (Varese, Lombardia) - Classe B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Teatro di Corte dei Gonzaga - (Mantova, Lombardia) - Classe C</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Studio Centrale di Milano 2 - (Milano, Lombardia) - Classe S</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Auditorium Emidio Neroni - (Ascoli Piceno, Marche) - Classe C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
         <v>Museo del Cinema - (Torino, Piemonte) - Classe B</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fiera Cuneense - (Cuneo, Piemonte) - Classe C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>BATteatro - (Barletta-Andria-Trani, Puglia) - Classe B</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Loggia del palazzo Balsamo - (Brindisi, Puglia) - Classe C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="90">
+      <c r="A21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Necropoli di Tuvixeddu - (Cagliari, Sardegna) - Classe C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Valle dei Templi - (Agrigento, Sicilia) - Classe C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Padiglione Sud - (Lucca, Toscana) - Classe A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>Parco del Duomo - (Pisa, Toscana) - Classe B</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>Palabefana - (Benevento, Campania) - Classe C</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>Stadio Ennio Tardini - (Parma, Emilia Romagna) - Classe C</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>Grattacielo L'Edera - (Frosinone, Lazio) - Classe C</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>Teatro di Corte dei Gonzaga - (Mantova, Lombardia) - Classe C</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>Auditorium Emidio Neroni - (Ascoli Piceno, Marche) - Classe C</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>Fiera Cuneense - (Cuneo, Piemonte) - Classe C</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>Loggia del palazzo Balsamo - (Brindisi, Puglia) - Classe C</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>Necropoli di Tuvixeddu - (Cagliari, Sardegna) - Classe C</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>Valle dei Templi - (Agrigento, Sicilia) - Classe C</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
@@ -2425,16 +2585,19 @@
         <v>Allegra Fattoria - (Grosseto, Toscana) - Classe C</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D26" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2444,13 +2607,13 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2461,28 +2624,31 @@
         <v>Grande Hyperion - (Terni, Umbria) - Classe C</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Studio Centrale di Milano 2 - (Milano, Lombardia) - Classe S</v>
+        <v>L'Arena - (Verona, Veneto) - Classe A</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
     <sortState ref="A2:E28">
-      <sortCondition ref="E1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
